--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Mdk-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H2">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I2">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J2">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N2">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q2">
-        <v>10.02398082770638</v>
+        <v>59.39035423516566</v>
       </c>
       <c r="R2">
-        <v>10.02398082770638</v>
+        <v>534.5131881164909</v>
       </c>
       <c r="S2">
-        <v>0.0002826162638317221</v>
+        <v>0.001495793888247391</v>
       </c>
       <c r="T2">
-        <v>0.0002826162638317221</v>
+        <v>0.001495793888247391</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H3">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I3">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J3">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N3">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P3">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q3">
-        <v>256.1749179233618</v>
+        <v>455.5285982666153</v>
       </c>
       <c r="R3">
-        <v>256.1749179233618</v>
+        <v>4099.757384399538</v>
       </c>
       <c r="S3">
-        <v>0.007222599427842729</v>
+        <v>0.01147285450615571</v>
       </c>
       <c r="T3">
-        <v>0.007222599427842729</v>
+        <v>0.01147285450615571</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H4">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I4">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J4">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N4">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q4">
-        <v>143.2459946340891</v>
+        <v>279.1655646876103</v>
       </c>
       <c r="R4">
-        <v>143.2459946340891</v>
+        <v>2512.490082188493</v>
       </c>
       <c r="S4">
-        <v>0.004038679693046499</v>
+        <v>0.007031009510659039</v>
       </c>
       <c r="T4">
-        <v>0.004038679693046499</v>
+        <v>0.00703100951065904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.41600356826184</v>
+        <v>2.512729</v>
       </c>
       <c r="H5">
-        <v>1.41600356826184</v>
+        <v>7.538187</v>
       </c>
       <c r="I5">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="J5">
-        <v>0.01274337653726104</v>
+        <v>0.02190726325199687</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N5">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q5">
-        <v>42.5438221892858</v>
+        <v>75.74128908100732</v>
       </c>
       <c r="R5">
-        <v>42.5438221892858</v>
+        <v>681.6716017290659</v>
       </c>
       <c r="S5">
-        <v>0.001199481152540095</v>
+        <v>0.001907605346934728</v>
       </c>
       <c r="T5">
-        <v>0.001199481152540095</v>
+        <v>0.001907605346934728</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H6">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I6">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J6">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N6">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q6">
-        <v>655.498774454352</v>
+        <v>2195.623662389746</v>
       </c>
       <c r="R6">
-        <v>655.498774454352</v>
+        <v>19760.61296150771</v>
       </c>
       <c r="S6">
-        <v>0.0184811421496853</v>
+        <v>0.05529854969528578</v>
       </c>
       <c r="T6">
-        <v>0.0184811421496853</v>
+        <v>0.05529854969528578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H7">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I7">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J7">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N7">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P7">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q7">
-        <v>16752.06164406948</v>
+        <v>16840.60285764725</v>
       </c>
       <c r="R7">
-        <v>16752.06164406948</v>
+        <v>151565.4257188252</v>
       </c>
       <c r="S7">
-        <v>0.4723078739575871</v>
+        <v>0.4241441418100684</v>
       </c>
       <c r="T7">
-        <v>0.4723078739575871</v>
+        <v>0.4241441418100684</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H8">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I8">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J8">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N8">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q8">
-        <v>9367.293846832421</v>
+        <v>10320.57355855242</v>
       </c>
       <c r="R8">
-        <v>9367.293846832421</v>
+        <v>92885.16202697177</v>
       </c>
       <c r="S8">
-        <v>0.2641016213726546</v>
+        <v>0.259931954454477</v>
       </c>
       <c r="T8">
-        <v>0.2641016213726546</v>
+        <v>0.259931954454477</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>92.59680555783819</v>
+        <v>92.89399466666667</v>
       </c>
       <c r="H9">
-        <v>92.59680555783819</v>
+        <v>278.681984</v>
       </c>
       <c r="I9">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382196</v>
       </c>
       <c r="J9">
-        <v>0.8333283798285455</v>
+        <v>0.8098976036382197</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N9">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q9">
-        <v>2782.070694768251</v>
+        <v>2800.10733506779</v>
       </c>
       <c r="R9">
-        <v>2782.070694768251</v>
+        <v>25200.96601561011</v>
       </c>
       <c r="S9">
-        <v>0.07843774234861868</v>
+        <v>0.0705229576783885</v>
       </c>
       <c r="T9">
-        <v>0.07843774234861868</v>
+        <v>0.07052295767838851</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H10">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I10">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J10">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N10">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q10">
-        <v>9.259034843591474</v>
+        <v>38.06874539664155</v>
       </c>
       <c r="R10">
-        <v>9.259034843591474</v>
+        <v>342.618708569774</v>
       </c>
       <c r="S10">
-        <v>0.0002610493654328252</v>
+        <v>0.000958792003025735</v>
       </c>
       <c r="T10">
-        <v>0.0002610493654328252</v>
+        <v>0.0009587920030257351</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H11">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I11">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J11">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N11">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P11">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q11">
-        <v>236.6258008545416</v>
+        <v>291.9902137581925</v>
       </c>
       <c r="R11">
-        <v>236.6258008545416</v>
+        <v>2627.911923823732</v>
       </c>
       <c r="S11">
-        <v>0.006671431331837595</v>
+        <v>0.007354008622985195</v>
       </c>
       <c r="T11">
-        <v>0.006671431331837595</v>
+        <v>0.007354008622985194</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H12">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I12">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J12">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N12">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q12">
-        <v>132.3146640360672</v>
+        <v>178.9429098792891</v>
       </c>
       <c r="R12">
-        <v>132.3146640360672</v>
+        <v>1610.486188913602</v>
       </c>
       <c r="S12">
-        <v>0.003730481596359874</v>
+        <v>0.004506821257249868</v>
       </c>
       <c r="T12">
-        <v>0.003730481596359874</v>
+        <v>0.004506821257249868</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.30794607477179</v>
+        <v>1.610639333333333</v>
       </c>
       <c r="H13">
-        <v>1.30794607477179</v>
+        <v>4.831918</v>
       </c>
       <c r="I13">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="J13">
-        <v>0.01177090912398563</v>
+        <v>0.0140423817607685</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N13">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q13">
-        <v>39.29723518039592</v>
+        <v>48.54956477648044</v>
       </c>
       <c r="R13">
-        <v>39.29723518039592</v>
+        <v>436.946082988324</v>
       </c>
       <c r="S13">
-        <v>0.001107946830355343</v>
+        <v>0.001222759877507703</v>
       </c>
       <c r="T13">
-        <v>0.001107946830355343</v>
+        <v>0.001222759877507703</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H14">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I14">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J14">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N14">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q14">
-        <v>111.8214149508636</v>
+        <v>417.9064451653452</v>
       </c>
       <c r="R14">
-        <v>111.8214149508636</v>
+        <v>3761.158006488106</v>
       </c>
       <c r="S14">
-        <v>0.003152694628309742</v>
+        <v>0.01052531028965285</v>
       </c>
       <c r="T14">
-        <v>0.003152694628309742</v>
+        <v>0.01052531028965285</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H15">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I15">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J15">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N15">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P15">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q15">
-        <v>2857.731103987578</v>
+        <v>3205.374671094902</v>
       </c>
       <c r="R15">
-        <v>2857.731103987578</v>
+        <v>28848.37203985411</v>
       </c>
       <c r="S15">
-        <v>0.08057091304607684</v>
+        <v>0.08072994182829479</v>
       </c>
       <c r="T15">
-        <v>0.08057091304607684</v>
+        <v>0.08072994182829478</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H16">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I16">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J16">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N16">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q16">
-        <v>1597.964928439791</v>
+        <v>1964.377721830404</v>
       </c>
       <c r="R16">
-        <v>1597.964928439791</v>
+        <v>17679.39949647364</v>
       </c>
       <c r="S16">
-        <v>0.0450530468455728</v>
+        <v>0.04947443449972641</v>
       </c>
       <c r="T16">
-        <v>0.0450530468455728</v>
+        <v>0.04947443449972641</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.7960719698165</v>
+        <v>17.68108066666667</v>
       </c>
       <c r="H17">
-        <v>15.7960719698165</v>
+        <v>53.04324200000001</v>
       </c>
       <c r="I17">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="J17">
-        <v>0.1421573345102079</v>
+        <v>0.154152751349015</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N17">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q17">
-        <v>474.5929263426596</v>
+        <v>532.961509991173</v>
       </c>
       <c r="R17">
-        <v>474.5929263426596</v>
+        <v>4796.653589920556</v>
       </c>
       <c r="S17">
-        <v>0.01338067999024858</v>
+        <v>0.01342306473134094</v>
       </c>
       <c r="T17">
-        <v>0.01338067999024858</v>
+        <v>0.01342306473134094</v>
       </c>
     </row>
   </sheetData>
